--- a/ccv_design_docs.xlsx
+++ b/ccv_design_docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivana\Documents\Paradox Interactive\Stellaris\mod\crystal-clear-vanilla-stellaris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F7AA8B3-59AE-4524-9FE4-B3FED754FA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3EB0F4-3D88-4A79-93E1-9F8F484960C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9B8AB00-1CEC-401C-BE67-2334573CF60E}"/>
   </bookViews>
@@ -32,6 +32,65 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <si>
+    <t>Civic Name</t>
+  </si>
+  <si>
+    <t>Cooperative Ethic</t>
+  </si>
+  <si>
+    <t>Egalitarian Ethic</t>
+  </si>
+  <si>
+    <t>linked</t>
+  </si>
+  <si>
+    <t>not linked</t>
+  </si>
+  <si>
+    <t>Efficient Bureaucracy</t>
+  </si>
+  <si>
+    <t>Ecocentric Ethic</t>
+  </si>
+  <si>
+    <t>Pacifist Ethic</t>
+  </si>
+  <si>
+    <t>Elitist Ethic</t>
+  </si>
+  <si>
+    <t>Militarist Ethic</t>
+  </si>
+  <si>
+    <t>Spiritualist Ethic</t>
+  </si>
+  <si>
+    <t>Authoritarian Ethic</t>
+  </si>
+  <si>
+    <t>Government Type</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Devouring Swarm</t>
+  </si>
+  <si>
+    <t>Hive Mind</t>
+  </si>
+  <si>
+    <t>Gospel of the Masses</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,7 +131,38 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -83,6 +173,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{184F596D-89C3-4FCD-A803-3A723A8E3EE3}" name="Таблица1" displayName="Таблица1" ref="A1:J4" totalsRowShown="0">
+  <autoFilter ref="A1:J4" xr:uid="{184F596D-89C3-4FCD-A803-3A723A8E3EE3}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{F349CC80-5598-48F6-A084-A5538EEE5463}" name="Civic Name"/>
+    <tableColumn id="10" xr3:uid="{05EAEBE2-5E03-40C4-942E-9A664471BB20}" name="Government Type"/>
+    <tableColumn id="2" xr3:uid="{753B4123-D974-4699-9444-34D4AED9C117}" name="Cooperative Ethic"/>
+    <tableColumn id="3" xr3:uid="{815B8174-CF3B-48C4-9607-7AE175FEAA36}" name="Egalitarian Ethic"/>
+    <tableColumn id="4" xr3:uid="{1C194BB3-96C9-4311-936A-894DFC3EAF00}" name="Ecocentric Ethic"/>
+    <tableColumn id="5" xr3:uid="{43158BEB-3E74-4754-B185-B59E3ED263C1}" name="Pacifist Ethic"/>
+    <tableColumn id="6" xr3:uid="{9C26DA2B-FB63-4BCC-A188-553BC3143D8A}" name="Elitist Ethic"/>
+    <tableColumn id="7" xr3:uid="{BEED6701-A98D-4981-BDEB-E5BC368F88A0}" name="Militarist Ethic"/>
+    <tableColumn id="8" xr3:uid="{2FB3A612-CFB3-4D75-8693-B27AD6BF47B0}" name="Spiritualist Ethic"/>
+    <tableColumn id="9" xr3:uid="{F472BA33-D200-436D-904C-AA5A2A6B4F70}" name="Authoritarian Ethic"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +491,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B9B697-21CF-4D31-9FCC-AD3A813B1A77}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:J4">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"linked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"not linked"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>